--- a/biology/Botanique/Masoala_(genre)/Masoala_(genre).xlsx
+++ b/biology/Botanique/Masoala_(genre)/Masoala_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Masoala est un genre de plantes de la famille des Arecaceae (Palmiers) comportant des espèces originaires de Madagascar.
 </t>
@@ -511,13 +523,15 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille des Arecaceae
 Sous-famille des Arecoideae
 Tribu des Areceae
 Sous-tribu des Dypsidinae
-Ce genre partage sa sous-tribu avec les genres suivant:  Dypsis, Chrysalidocarpus, Vonitra, Lemurophoenix, Marojejya [1].
+Ce genre partage sa sous-tribu avec les genres suivant:  Dypsis, Chrysalidocarpus, Vonitra, Lemurophoenix, Marojejya .
 </t>
         </is>
       </c>
@@ -546,11 +560,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit par Henri Lucien Jumelle et publié en 1933 dans les Annales du Musée colonial de Marseille[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit par Henri Lucien Jumelle et publié en 1933 dans les Annales du Musée colonial de Marseille,.
 Étymologie
-Masoala : nom générique d’après le nom de la Péninsule de Masoala au nord-est de Madagascar, où la plante a été découverte pour la première fois[4].
+Masoala : nom générique d’après le nom de la Péninsule de Masoala au nord-est de Madagascar, où la plante a été découverte pour la première fois.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Masoala kona Beentje, in J.Dransfield &amp; H.Beentje, Palms Madagascar: 425 (1995).
 Masoala madagascariensis Jum., Ann. Inst. Bot.-Géol. Colon. Marseille, V, 1(1): 8 (1933).</t>
